--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32.88547</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100.73831</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.64079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>67.54095</v>
-      </c>
-      <c r="G2" t="n">
-        <v>97.56498999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90.89404999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>42.57204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>45.66628</v>
-      </c>
-      <c r="K2" t="n">
-        <v>168.29695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23.26327</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76.00453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.19532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.25245</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.35049</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>129.85057</v>
-      </c>
-      <c r="R2" t="n">
-        <v>31.40785</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>39.65846</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.95856</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.41836</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.80109</v>
-      </c>
-      <c r="X2" t="n">
-        <v>180.5427</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>251.04962</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>146.27133</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>75.93453</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.125</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>21.9905</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>220.9853</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.89842</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2695.31201</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>74.21669</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>143.32166</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>156.87206</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.98736</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>86.31328000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>65.82461000000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>93.76497000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>64.71587</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.33033</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35.17411</v>
-      </c>
-      <c r="C3" t="n">
-        <v>113.06349</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.19512</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>77.07411999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>113.04947</v>
-      </c>
-      <c r="H3" t="n">
-        <v>73.95095000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.47146</v>
-      </c>
-      <c r="J3" t="n">
-        <v>63.28887</v>
-      </c>
-      <c r="K3" t="n">
-        <v>205.45025</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.74467</v>
-      </c>
-      <c r="M3" t="n">
-        <v>76.76397</v>
-      </c>
-      <c r="N3" t="n">
-        <v>66.87323000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.32959</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.6019600000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>133.0835</v>
-      </c>
-      <c r="R3" t="n">
-        <v>40.49972</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>41.41317</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.14953</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.11481</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.90212</v>
-      </c>
-      <c r="X3" t="n">
-        <v>189.43566</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>327.84729</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>170.73104</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>87.87146</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>38.86249</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>94.50323</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>252.09923</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5.3681</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3188.46612</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>95.27641</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>183.74933</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>183.59995</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.62812</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>89.64471</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>75.86725</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>107.41822</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>74.98587000000001</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.38365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>47.71574</v>
-      </c>
-      <c r="C4" t="n">
-        <v>127.03503</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.23148</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>86.82795</v>
-      </c>
-      <c r="G4" t="n">
-        <v>151.42293</v>
-      </c>
-      <c r="H4" t="n">
-        <v>55.74031</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50.03577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64.1605</v>
-      </c>
-      <c r="K4" t="n">
-        <v>218.13389</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33.54778</v>
-      </c>
-      <c r="M4" t="n">
-        <v>85.02647</v>
-      </c>
-      <c r="N4" t="n">
-        <v>74.23227</v>
-      </c>
-      <c r="O4" t="n">
-        <v>50.29047</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>141.86761</v>
-      </c>
-      <c r="R4" t="n">
-        <v>46.71888</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>34.7423</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.15488</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7.18208</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.69101</v>
-      </c>
-      <c r="X4" t="n">
-        <v>190.82379</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>386.43572</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>190.37661</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>99.87794</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>38.39252</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>69.42108</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>261.29889</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5.58363</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3376.40633</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>91.68743000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>183.86944</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>187.84334</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.47322</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>79.43888</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>79.28758999999999</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>114.66186</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>69.94262999999999</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.61461</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
